--- a/src/main/resources/TestData/loginData.xlsx
+++ b/src/main/resources/TestData/loginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -95,10 +95,16 @@
     <t xml:space="preserve">vasu_DTR</t>
   </si>
   <si>
-    <t xml:space="preserve">demo_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin</t>
+    <t xml:space="preserve">Menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubMenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise Settlement</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -206,6 +212,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -288,10 +310,10 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.11"/>
@@ -555,13 +577,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.26"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -570,13 +595,25 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/loginData.xlsx
+++ b/src/main/resources/TestData/loginData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="selectVerticalAndPendingWith" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="settlementLoginCredentials" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="selectVerticalAndPendingWith" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="settlementLoginCredentials" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -101,10 +101,16 @@
     <t xml:space="preserve">SubMenu</t>
   </si>
   <si>
+    <t xml:space="preserve">APAC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Settlement</t>
   </si>
   <si>
     <t xml:space="preserve">Raise Settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFE439627060 </t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -150,6 +156,11 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,32 +204,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,7 +249,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -302,8 +325,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -313,242 +442,242 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -573,47 +702,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
